--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,103 +486,103 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4101CL-08002</t>
+          <t>4102CSL-01140</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03CBMB2</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ET</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>氯气</t>
+          <t>36%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>气相</t>
+          <t>液相</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4101CL-08007</t>
+          <t>4102CSL-01141</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>03CBBC7</t>
+          <t>03CBDB2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>氯气</t>
+          <t>36%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>气相</t>
+          <t>液相</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4101CL-08008</t>
+          <t>4102CSL-01142A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>03CBMB1</t>
+          <t>03CBDB2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>氯气</t>
+          <t>36%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>气相</t>
+          <t>液相</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4101CWR-08005</t>
+          <t>4102CSL-01142B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -592,17 +592,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>03CBBA2</t>
+          <t>03CBDB2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>循环回水</t>
+          <t>36%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -614,27 +614,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4101CWS-08005</t>
+          <t>4102CSL-01143A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>03CBBA2</t>
+          <t>03CBDB2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>循环上水</t>
+          <t>36%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -646,27 +646,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4101DW-08002</t>
+          <t>4102CSL-01143B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>03CBCA1</t>
+          <t>03CBDB2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ET</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>脱盐水</t>
+          <t>36%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -678,27 +678,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4101DW-08003</t>
+          <t>4102CSL-01144</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>03CBCA1</t>
+          <t>03CBDB2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ET</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>脱盐水</t>
+          <t>36%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4101DW-08006</t>
+          <t>4102CSL-01145</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>03CBCA1</t>
+          <t>03ABFC1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>脱盐水</t>
+          <t>36%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -742,27 +742,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4101DW-08007</t>
+          <t>4102CSL-01146</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>03CBCA1</t>
+          <t>03CBDB2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>脱盐水</t>
+          <t>36%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -774,27 +774,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4101HA-01001</t>
+          <t>4102CSL-01147</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>03CBMB2</t>
+          <t>03CBDB2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31%高纯盐酸</t>
+          <t>36%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -806,27 +806,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4101HA-08003</t>
+          <t>4102CSL-01148</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>03CBMB2</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>31%高纯盐酸</t>
+          <t>36%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -838,27 +838,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4101HA-08004</t>
+          <t>4102CSL-01149</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>03CBMB2</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>31%高纯盐酸</t>
+          <t>36%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -870,27 +870,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4101HA-08022</t>
+          <t>4102CSM-01110</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>03CBMB2</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>31%高纯盐酸</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -902,27 +902,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4101HA-08024</t>
+          <t>4102CSM-01120</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>03CBMB2</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>31%高纯盐酸</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -934,27 +934,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4101HA-08025</t>
+          <t>4102CSM-01121</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>03CBMB2</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>31%高纯盐酸</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -966,27 +966,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4101HA-08030</t>
+          <t>4102CSM-01122A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>03CBMB2</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>31%高纯盐酸</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -998,27 +998,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4101HA-08035</t>
+          <t>4102CSM-01122B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>03CBMB2</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31%高纯盐酸</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1030,17 +1030,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4101HG-06103</t>
+          <t>4102CSM-01123A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>03CBBA8</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1050,19 +1050,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>氢气</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>气相</t>
+          <t>液相</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4101HG-08002</t>
+          <t>4102CSM-01123B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>03CBBA8</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1082,29 +1082,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>氢气</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>气相</t>
+          <t>液相</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4101HG-08003</t>
+          <t>4102CSM-01124</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>03CBBA8</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1114,19 +1114,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>氢气</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>气相</t>
+          <t>液相</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4101HG-08007</t>
+          <t>4102CSM-01125</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1136,39 +1136,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>03CBCB2</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>氢气</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>气相</t>
+          <t>液相</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4101HG-08008</t>
+          <t>4102CSM-01126</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>03CBCB2</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1178,125 +1178,125 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>氢气</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>气相</t>
+          <t>液相</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4101HG-08008</t>
+          <t>4102CSM-01127</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>03CBCB2</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>氢气</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>气相</t>
+          <t>液相</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4101HG-08013</t>
+          <t>4102CSM-01128</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>03CBCB2</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>氢气</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>气相</t>
+          <t>液相</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4101HG-08021</t>
+          <t>4102CSM-01129</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>03CBBA8</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>氢气</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>气相</t>
+          <t>液相</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4101HW-08001</t>
+          <t>4102CSM-01130</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>03CBBA3</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>热水</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1318,17 +1318,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4101HW-08004</t>
+          <t>4102CSM-01131</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>03CBBA3</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>热水</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1350,17 +1350,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4101HW-08005</t>
+          <t>4102CSM-01132A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>03CBBA3</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>热水</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1382,27 +1382,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4101HW-08007</t>
+          <t>4102CSM-01132B</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>03CBBA3</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>热水</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1414,27 +1414,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4101HW-08010</t>
+          <t>4102CSM-01133A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>03CBBA3</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>热水</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1446,17 +1446,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4101HW-08011</t>
+          <t>4102CSM-01133B</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>03CBBA3</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>热水</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1478,27 +1478,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4101HW-08015</t>
+          <t>4102CSM-01134</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>03CBBA3</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>热水</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1510,27 +1510,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4101HW-08018</t>
+          <t>4102CSM-01135</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>03CBBA3</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>热水</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1542,17 +1542,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4101HW-08019</t>
+          <t>4102CSM-01136</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>03CBBA3</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>热水</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1574,27 +1574,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4101HW-08020</t>
+          <t>4102CSM-01137</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>03CBBA3</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>热水</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1606,177 +1606,177 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4101LPN-08001</t>
+          <t>4102CSM-01138</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>03CBBA1</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>低压氮气</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>气相</t>
+          <t>液相</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4101LPN-08002</t>
+          <t>4102CSM-01139</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>03CBBA1</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>低压氮气</t>
+          <t>42%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>气相</t>
+          <t>液相</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4101LPN-08003</t>
+          <t>4102CSP-01103A</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>03CBBA1</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>低压氮气</t>
+          <t>50%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>气相</t>
+          <t>液相</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4101LPN-08010</t>
+          <t>4102CSP-01103B</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>03CBBA1</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>低压氮气</t>
+          <t>50%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>气相</t>
+          <t>液相</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4101LPN-08011</t>
+          <t>4102CSP-01106</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>03CBBA1</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>低压氮气</t>
+          <t>50%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>气相</t>
+          <t>液相</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4101NA-03027</t>
+          <t>4102CSP-01109</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>03CBCB2</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>氢氧化钠溶液</t>
+          <t>50%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1798,27 +1798,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4101NA-08006</t>
+          <t>4102CSP-01110</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>03CBMB2</t>
+          <t>03CBDB2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>氢氧化钠溶液</t>
+          <t>50%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1830,27 +1830,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4101NA-08014</t>
+          <t>4102CSP-01111</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>03CBMB2</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>氢氧化钠溶液</t>
+          <t>50%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1862,17 +1862,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4101NA-08019</t>
+          <t>4102CSP-01112A</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>03CBMB2</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>氢氧化钠溶液</t>
+          <t>50%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1894,17 +1894,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4101NA-08020</t>
+          <t>4102CSP-01112B</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>03CBMB2</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>氢氧化钠溶液</t>
+          <t>50%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1926,17 +1926,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4101NA-08021</t>
+          <t>4102CSP-01114</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>03CBMB2</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>氢氧化钠溶液</t>
+          <t>50%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1958,17 +1958,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4101NA-08025</t>
+          <t>4102CSP-01115</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>03CBMB2</t>
+          <t>03ABRC1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>氢氧化钠溶液</t>
+          <t>50%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1990,27 +1990,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4101PW-08002</t>
+          <t>4102CSP-01117</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>03CBBA2</t>
+          <t>03CBDB2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>生产上水</t>
+          <t>50%氢氧化钠溶液</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2022,17 +2022,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4101VG-08006</t>
+          <t>4102CWR-01102</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>500</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>03CBMB1</t>
+          <t>03CBBA2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2042,29 +2042,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>放空气</t>
+          <t>循环回水</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>气相</t>
+          <t>液相</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4101VG-08021</t>
+          <t>4102CWR-01104</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>03CBMB2</t>
+          <t>03CBBA2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2074,39 +2074,39 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>放空气</t>
+          <t>循环回水</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>气相</t>
+          <t>液相</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4101WW-08002</t>
+          <t>4102CWR-01105A</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>03CBBA8</t>
+          <t>03CBBA2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>工艺废水</t>
+          <t>循环回水</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2118,27 +2118,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4101WW-08021</t>
+          <t>4102CWR-01105B</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>03CBMB2</t>
+          <t>03CBBA2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ET</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>工艺废水</t>
+          <t>循环回水</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2150,27 +2150,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4101WW-08021</t>
+          <t>4102CWS-01102</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>500</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>03CBMB2</t>
+          <t>03CBBA2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ET</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>工艺废水</t>
+          <t>循环上水</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2182,32 +2182,1504 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4101WW-08021</t>
+          <t>4102CWS-01104</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>03CBBA2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>循环上水</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4102CWS-01105A</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>03CBBA2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>循环上水</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4102CWS-01105B</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>03CBBA2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>循环上水</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4102D-01101</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>03CBDB3</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>二次汽</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>未知相态</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4102D-01101</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>03CBDB3</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>二次汽</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>未知相态</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4102DW-01110</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>03CBCA1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>脱盐水</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4102DW-01111A</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>03CBCA1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>脱盐水</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4102DW-01111B</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>03CBCA1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>脱盐水</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4102NA-01001</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>03ABFC1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>氢氧化钠溶液</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4102NA-01103</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>03ABFC1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>氢氧化钠溶液</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4102NA-01203</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>03ABFC1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>氢氧化钠溶液</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4102PC-01101</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4102PC-01102</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4102PC-01103</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4102PC-01104</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4102PC-01105</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4102PC-01106</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4102PC-01107</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4102PC-01108</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>03CBBC7</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>ET</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>工艺废水</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>液相</t>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4102PC-01109</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4102PC-01110A</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4102PC-01110B</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4102PC-01111A</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4102PC-01111B</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4102PC-01112</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4102PC-01112</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4102PC-01113</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4102PC-01114</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4102PC-01115</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4102PC-01116</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4102PC-01117</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4102PC-01212</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>工艺冷凝液</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>液相</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4102S18-01102</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>03CCBA3</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>低压蒸气 (1.8MPaG)</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>气相</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4102SC18-01102</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>03CCBA3</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>低压蒸气冷凝液</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>气相</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4102SC18-01103</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>03CCBA3</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>低压蒸气冷凝液</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>气相</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4102SC18-01104</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>03CCBA3</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>低压蒸气冷凝液</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>气相</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4102SC18-01105</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>03CCBA3</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>低压蒸气冷凝液</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>气相</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4102SC18-01106</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>03CCBA3</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>低压蒸气冷凝液</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>气相</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4102SC18-01108</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>03CCBA3</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>低压蒸气冷凝液</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>气相</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4102VT-01101</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>抽空气</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>气相</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4102VT-01102</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>抽空气</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>气相</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4102VT-01104</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>03CCBA3</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>抽空气</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>气相</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4102VT-01106</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>抽空气</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>气相</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4102VT-01107A</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>抽空气</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>气相</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>4102VT-01107B</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>抽空气</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>气相</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>4102VT-01109</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>抽空气</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>气相</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4102VT-01110</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>03CBCB2</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>抽空气</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>气相</t>
         </is>
       </c>
     </row>
